--- a/Lab3/Check-list.xlsx
+++ b/Lab3/Check-list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="153">
   <si>
     <t>Чек-лист проверки настроек под админом ispringlearn.com (сайт http://dimaoq.ispringlearn.com/settings/)</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Один новый alias</t>
   </si>
   <si>
-    <t>Некорректный синоним</t>
-  </si>
-  <si>
     <t>Несколько новый alias'ов через запятую</t>
   </si>
   <si>
@@ -246,20 +243,245 @@
     <t>Настройка параметров администратора</t>
   </si>
   <si>
-    <t>Загрузка очень больших файлов</t>
-  </si>
-  <si>
     <t>Проверка смены временного пояса</t>
   </si>
   <si>
     <t>1) Загружаем контент за админа 2) Меняем часовой пояс - время загрузки изменяется</t>
+  </si>
+  <si>
+    <t>Проверка галочки "Force HTTPS"</t>
+  </si>
+  <si>
+    <t>Заставляет браузер переходить по https для всех подключений</t>
+  </si>
+  <si>
+    <t>Установить-&gt;сохранить, перезагрузить страницу - сайт загружается по https</t>
+  </si>
+  <si>
+    <t>Установка галочки</t>
+  </si>
+  <si>
+    <t>Снятие галочки</t>
+  </si>
+  <si>
+    <t>Снять галочку-&gt;сохрaнить, перезагрузить страницу - сайт загружается по http</t>
+  </si>
+  <si>
+    <t>Проверка кнопки "Add certificate"</t>
+  </si>
+  <si>
+    <t>По нажатию открывается форма загрузки сертификата</t>
+  </si>
+  <si>
+    <t>Настройки User Portal</t>
+  </si>
+  <si>
+    <t>settings/user_portal_settings</t>
+  </si>
+  <si>
+    <t>settings/administrator_settings</t>
+  </si>
+  <si>
+    <t>Проверка галочки "Enable User Portal"</t>
+  </si>
+  <si>
+    <t>Появляется форма изменения главной страницы User Portal</t>
+  </si>
+  <si>
+    <t>Скрывается форма изменения главной страницы User Portal</t>
+  </si>
+  <si>
+    <t>Проверка кнопки "Add localization"</t>
+  </si>
+  <si>
+    <t>Добавляет локализацию на User Portal</t>
+  </si>
+  <si>
+    <t>Проверка кнопки "Upload"</t>
+  </si>
+  <si>
+    <t>Загружает пользовательскую локализацию</t>
+  </si>
+  <si>
+    <t>Загрузка csv</t>
+  </si>
+  <si>
+    <t>1) Загружаем локализацию 2) Выбираем в поле снизу кнопки Upload свою локализацию 3) Переходим на аккаунт юзера и видим загруженные строки</t>
+  </si>
+  <si>
+    <t>Сообщение об ошибке - некорректный тип файла</t>
+  </si>
+  <si>
+    <t>Настройка Organizations</t>
+  </si>
+  <si>
+    <t>Проверка кнопки Add Organization</t>
+  </si>
+  <si>
+    <t>Показывает форму добавления новой организации</t>
+  </si>
+  <si>
+    <t>Проверка поля Name</t>
+  </si>
+  <si>
+    <t>Имя огранизации</t>
+  </si>
+  <si>
+    <t>Сообщение об ошибке</t>
+  </si>
+  <si>
+    <t>Уже занятое имя организации</t>
+  </si>
+  <si>
+    <t>Открывает окошко загрузки сертификата</t>
+  </si>
+  <si>
+    <t>Загрузка pdf</t>
+  </si>
+  <si>
+    <t>Загруженный сертификат показывается в поле снизу кнопки Add Certificate</t>
+  </si>
+  <si>
+    <t>Сообщение об ошибке - такая организация уже существует</t>
+  </si>
+  <si>
+    <t>Проверка поля с текущим списком организаций</t>
+  </si>
+  <si>
+    <t>При наведении на название оранизации подчеркивается ее название, выделяется цветом, при нажатии показывает окошко изменения этой организации</t>
+  </si>
+  <si>
+    <t>Настройка Reset Statistics</t>
+  </si>
+  <si>
+    <t>settings/reset_statistics, сначала загружаем контент за админа, создаем тестовых юзеров, добавляем их в организацию</t>
+  </si>
+  <si>
+    <t>Выбор в списке контента нужный для сброса статистики</t>
+  </si>
+  <si>
+    <t>Проверка Select content item</t>
+  </si>
+  <si>
+    <t>Проверка кнопки Select All</t>
+  </si>
+  <si>
+    <t>Выбирается весь контент</t>
+  </si>
+  <si>
+    <t>Проверка кнопки Unselect All</t>
+  </si>
+  <si>
+    <t>Снимается выделение со всего контента</t>
+  </si>
+  <si>
+    <t>При выборе группы обновляется список пользователей в соседнем поле</t>
+  </si>
+  <si>
+    <t>Проверка выбора групп в поле "Group"</t>
+  </si>
+  <si>
+    <t>После выбора нажимаем Contunue-&gt;заходим за админа в пункт Content на главной странице, выбираем контент - для выбранных пользователей статистика должна быть сброшена</t>
+  </si>
+  <si>
+    <t>Проверка выбора пользователей</t>
+  </si>
+  <si>
+    <t>Проверка кнопки Organization</t>
+  </si>
+  <si>
+    <t>Открывается окошко выбора организации, в которой находятся нужные пользователи</t>
+  </si>
+  <si>
+    <t>Настройка User Profile Fields</t>
+  </si>
+  <si>
+    <t>settings/user_fields</t>
+  </si>
+  <si>
+    <t>Проверка кнопки Edit</t>
+  </si>
+  <si>
+    <t>Открывается окно с полями для изменения текущего поля - имени, типа, активности и обязательности</t>
+  </si>
+  <si>
+    <t>Проверка кнопки Up</t>
+  </si>
+  <si>
+    <t>Проверка кнопки Down</t>
+  </si>
+  <si>
+    <t>При нажатии - поле обменивается в списке с верхним элементом, если поле первое - кнопка скрывается</t>
+  </si>
+  <si>
+    <t>При нажатии - поле обменивается в списке с нижним элементом, если поле последнее - кнопка скрывается</t>
+  </si>
+  <si>
+    <t>Проверка формы изменения поля</t>
+  </si>
+  <si>
+    <t>Поле Name</t>
+  </si>
+  <si>
+    <t>Сообщение об ошибке - пустое имя</t>
+  </si>
+  <si>
+    <t>Уже занятое имя</t>
+  </si>
+  <si>
+    <t>После сохранения поле обновляется</t>
+  </si>
+  <si>
+    <t>Галочка Active</t>
+  </si>
+  <si>
+    <t>При снятии</t>
+  </si>
+  <si>
+    <t>Сохраняем, обновляем список User Fields, для измененного поля пункт Active не выделен</t>
+  </si>
+  <si>
+    <t>При установке</t>
+  </si>
+  <si>
+    <t>Сохраняем, обновляем список User Fields, для измененного поля пункт Active выделен</t>
+  </si>
+  <si>
+    <t>Галочка Required</t>
+  </si>
+  <si>
+    <t>Сохраняем, обновляем список User Fields, для измененного поля пункт Required не выделен</t>
+  </si>
+  <si>
+    <t>Сохраняем, обновляем список User Fields, для измененного поля пункт Required выделен</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>err</t>
+  </si>
+  <si>
+    <t>Сообщение об ошибке - некорректный url</t>
+  </si>
+  <si>
+    <t>Загрузка очень больших файлов по объему (&gt; 2GB)</t>
+  </si>
+  <si>
+    <t>Загрузка очень больших файлов по размеру (&gt; 1M пикселей)</t>
+  </si>
+  <si>
+    <t>Некорректный url (присутствуют некорректный символы, к примеру "*:()")</t>
+  </si>
+  <si>
+    <t>Некорректный синоним (к примеру некорректные символы "*:() или неполное имя домена - к примеру "newalias")</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,16 +508,29 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -303,25 +538,103 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -613,10 +926,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T51"/>
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:T99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -627,480 +943,3072 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18.75">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="2" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J4" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="B6" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J6" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="B7" t="s">
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="1:20" ht="33" customHeight="1">
+      <c r="A7" s="3"/>
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J7" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>2</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="B9" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J9" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="B10" t="s">
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="1:20" ht="48" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="12"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="3"/>
+      <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J10" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="1:20" ht="47.25" customHeight="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="4">
+        <v>3</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" spans="1:20" ht="66" customHeight="1">
+      <c r="A14" s="3"/>
+      <c r="B14" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="B11" t="s">
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+    </row>
+    <row r="15" spans="1:20" ht="30" customHeight="1">
+      <c r="A15" s="3"/>
+      <c r="B15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+    </row>
+    <row r="16" spans="1:20" ht="35.25" customHeight="1">
+      <c r="A16" s="3"/>
+      <c r="B16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+    </row>
+    <row r="17" spans="1:17" ht="30" customHeight="1">
+      <c r="A17" s="3"/>
+      <c r="B17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+    </row>
+    <row r="18" spans="1:17" ht="30" customHeight="1">
+      <c r="A18" s="3"/>
+      <c r="B18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+    </row>
+    <row r="19" spans="1:17" ht="46.5" customHeight="1">
+      <c r="A19" s="3"/>
+      <c r="B19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+    </row>
+    <row r="20" spans="1:17" ht="30.75" customHeight="1">
+      <c r="A20" s="4">
+        <v>4</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+    </row>
+    <row r="21" spans="1:17" ht="30" customHeight="1">
+      <c r="A21" s="3"/>
+      <c r="B21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+    </row>
+    <row r="22" spans="1:17" ht="21" customHeight="1">
+      <c r="A22" s="3"/>
+      <c r="B22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+    </row>
+    <row r="23" spans="1:17" ht="21" customHeight="1">
+      <c r="A23" s="3"/>
+      <c r="B23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="3"/>
+      <c r="B24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="4">
+        <v>5</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="3"/>
+      <c r="B26" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+    </row>
+    <row r="27" spans="1:17" ht="30" customHeight="1">
+      <c r="A27" s="3"/>
+      <c r="B27" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="3"/>
+      <c r="B28" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="3"/>
+      <c r="B29" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="4">
+        <v>6</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="3"/>
+      <c r="B31" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="4">
+        <v>7</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="3"/>
+      <c r="B33" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+    </row>
+    <row r="34" spans="1:17" ht="30.75" customHeight="1">
+      <c r="A34" s="3"/>
+      <c r="B34" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+    </row>
+    <row r="35" spans="1:17" ht="30" customHeight="1">
+      <c r="A35" s="3"/>
+      <c r="B35" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+    </row>
+    <row r="36" spans="1:17" ht="30.75" customHeight="1">
+      <c r="A36" s="3"/>
+      <c r="B36" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+    </row>
+    <row r="37" spans="1:17" ht="30.75" customHeight="1">
+      <c r="A37" s="3"/>
+      <c r="B37" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+    </row>
+    <row r="38" spans="1:17" ht="31.5" customHeight="1">
+      <c r="A38" s="3"/>
+      <c r="B38" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="3"/>
+      <c r="B39" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="4">
+        <v>8</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="3"/>
+      <c r="B41" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="3"/>
+      <c r="B42" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+    </row>
+    <row r="43" spans="1:17" ht="30" customHeight="1">
+      <c r="A43" s="3"/>
+      <c r="B43" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+    </row>
+    <row r="44" spans="1:17" ht="28.5" customHeight="1">
+      <c r="A44" s="3"/>
+      <c r="B44" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+    </row>
+    <row r="45" spans="1:17" ht="30" customHeight="1">
+      <c r="A45" s="3"/>
+      <c r="B45" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+    </row>
+    <row r="46" spans="1:17" ht="30" customHeight="1">
+      <c r="A46" s="3"/>
+      <c r="B46" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+    </row>
+    <row r="47" spans="1:17" ht="30.75" customHeight="1">
+      <c r="A47" s="3"/>
+      <c r="B47" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="3"/>
+      <c r="B48" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+    </row>
+    <row r="49" spans="1:17" ht="30.75" customHeight="1">
+      <c r="A49" s="3"/>
+      <c r="B49" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="3"/>
+      <c r="B50" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+    </row>
+    <row r="51" spans="1:17" ht="33" customHeight="1">
+      <c r="A51" s="3"/>
+      <c r="B51" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+    </row>
+    <row r="52" spans="1:17" ht="32.25" customHeight="1">
+      <c r="A52" s="4">
+        <v>9</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="3"/>
+      <c r="B53" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+    </row>
+    <row r="54" spans="1:17" ht="30" customHeight="1">
+      <c r="A54" s="4">
+        <v>10</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="4">
+        <v>11</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="3"/>
+      <c r="B56" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="3"/>
+      <c r="B57" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="4">
+        <v>12</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="3"/>
+      <c r="B59" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="3"/>
+      <c r="B60" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="3"/>
+      <c r="B61" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="3"/>
+      <c r="B62" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" s="4">
+        <v>14</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" s="3"/>
+      <c r="B64" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="3"/>
+      <c r="B65" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="4">
+        <v>15</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="3"/>
+      <c r="B67" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
+    </row>
+    <row r="68" spans="1:17" ht="35.25" customHeight="1">
+      <c r="A68" s="3"/>
+      <c r="B68" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="3"/>
+      <c r="B69" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" s="4">
+        <v>16</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="3"/>
+      <c r="B71" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="3"/>
+      <c r="B72" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="5"/>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="4">
+        <v>17</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="3"/>
+      <c r="B74" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="3"/>
+      <c r="B75" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" s="3"/>
+      <c r="B76" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="5"/>
+      <c r="Q76" s="5"/>
+    </row>
+    <row r="77" spans="1:17" ht="45" customHeight="1">
+      <c r="A77" s="4">
         <v>18</v>
       </c>
-      <c r="J11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B77" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J77" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6"/>
+    </row>
+    <row r="78" spans="1:17" ht="31.5" customHeight="1">
+      <c r="A78" s="3"/>
+      <c r="B78" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="5"/>
+      <c r="Q78" s="5"/>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" s="4">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="B13" t="s">
+      <c r="B79" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="6"/>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80" s="3"/>
+      <c r="B80" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="5"/>
+      <c r="Q80" s="5"/>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81" s="3"/>
+      <c r="B81" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="5"/>
+      <c r="N81" s="5"/>
+      <c r="O81" s="5"/>
+      <c r="P81" s="5"/>
+      <c r="Q81" s="5"/>
+    </row>
+    <row r="82" spans="1:17">
+      <c r="A82" s="4">
+        <v>20</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J82" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
+    </row>
+    <row r="83" spans="1:17" ht="30.75" customHeight="1">
+      <c r="A83" s="4">
         <v>21</v>
       </c>
-      <c r="J13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="B15" t="s">
+      <c r="B83" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J83" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="6"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="6"/>
+    </row>
+    <row r="84" spans="1:17" ht="45" customHeight="1">
+      <c r="A84" s="4">
         <v>22</v>
       </c>
-      <c r="J15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="B16" t="s">
+      <c r="B84" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J84" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="6"/>
+    </row>
+    <row r="85" spans="1:17">
+      <c r="A85" s="3"/>
+      <c r="B85" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="K85" s="5"/>
+      <c r="L85" s="5"/>
+      <c r="M85" s="5"/>
+      <c r="N85" s="5"/>
+      <c r="O85" s="5"/>
+      <c r="P85" s="5"/>
+      <c r="Q85" s="5"/>
+    </row>
+    <row r="86" spans="1:17" ht="29.25" customHeight="1">
+      <c r="A86" s="4">
         <v>23</v>
       </c>
-      <c r="J16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="B18" t="s">
+      <c r="B86" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J86" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+    </row>
+    <row r="87" spans="1:17" ht="30.75" customHeight="1">
+      <c r="A87" s="4">
         <v>24</v>
       </c>
-      <c r="J18" t="s">
+      <c r="B87" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J87" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6"/>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="6"/>
+    </row>
+    <row r="88" spans="1:17" ht="30.75" customHeight="1">
+      <c r="A88" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="B20" t="s">
+      <c r="B88" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J88" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+      <c r="O88" s="6"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="6"/>
+    </row>
+    <row r="89" spans="1:17">
+      <c r="A89" s="4">
         <v>26</v>
       </c>
-      <c r="J20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="B23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24">
-        <v>5</v>
-      </c>
-      <c r="B24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="B25" t="s">
-        <v>43</v>
-      </c>
-      <c r="J25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="B26" t="s">
-        <v>72</v>
-      </c>
-      <c r="J26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="B27" t="s">
-        <v>38</v>
-      </c>
-      <c r="J27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="B28" t="s">
-        <v>40</v>
-      </c>
-      <c r="J28" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29">
-        <v>6</v>
-      </c>
-      <c r="B29" t="s">
-        <v>44</v>
-      </c>
-      <c r="J29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="B30" t="s">
-        <v>46</v>
-      </c>
-      <c r="J30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31">
-        <v>7</v>
-      </c>
-      <c r="B31" t="s">
-        <v>48</v>
-      </c>
-      <c r="J31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="B32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="B33" t="s">
-        <v>51</v>
-      </c>
-      <c r="J33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="B34" t="s">
-        <v>52</v>
-      </c>
-      <c r="J34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="B35" t="s">
-        <v>53</v>
-      </c>
-      <c r="J35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="B36" t="s">
-        <v>76</v>
-      </c>
-      <c r="J36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="B37" t="s">
-        <v>54</v>
-      </c>
-      <c r="J37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38">
-        <v>8</v>
-      </c>
-      <c r="B38" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="B39" t="s">
-        <v>56</v>
-      </c>
-      <c r="J39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="B40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="B41" t="s">
-        <v>51</v>
-      </c>
-      <c r="J41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="B42" t="s">
-        <v>52</v>
-      </c>
-      <c r="J42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="B43" t="s">
-        <v>53</v>
-      </c>
-      <c r="J43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="B44" t="s">
-        <v>76</v>
-      </c>
-      <c r="J44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="B45" t="s">
-        <v>54</v>
-      </c>
-      <c r="J45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="B46" t="s">
-        <v>58</v>
-      </c>
-      <c r="J46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="B47" t="s">
-        <v>63</v>
-      </c>
-      <c r="J47" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="B48" t="s">
-        <v>65</v>
-      </c>
-      <c r="J48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49">
-        <v>9</v>
-      </c>
-      <c r="B49" t="s">
-        <v>69</v>
-      </c>
-      <c r="J49" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="B50" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="B51" t="s">
-        <v>77</v>
-      </c>
-      <c r="J51" t="s">
-        <v>78</v>
-      </c>
+      <c r="B89" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="6"/>
+      <c r="N89" s="6"/>
+      <c r="O89" s="6"/>
+      <c r="P89" s="6"/>
+      <c r="Q89" s="6"/>
+    </row>
+    <row r="90" spans="1:17">
+      <c r="A90" s="3"/>
+      <c r="B90" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5"/>
+      <c r="O90" s="5"/>
+      <c r="P90" s="5"/>
+      <c r="Q90" s="5"/>
+    </row>
+    <row r="91" spans="1:17">
+      <c r="A91" s="3"/>
+      <c r="B91" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J91" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
+      <c r="M91" s="5"/>
+      <c r="N91" s="5"/>
+      <c r="O91" s="5"/>
+      <c r="P91" s="5"/>
+      <c r="Q91" s="5"/>
+    </row>
+    <row r="92" spans="1:17">
+      <c r="A92" s="3"/>
+      <c r="B92" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
+      <c r="M92" s="5"/>
+      <c r="N92" s="5"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="5"/>
+      <c r="Q92" s="5"/>
+    </row>
+    <row r="93" spans="1:17">
+      <c r="A93" s="3"/>
+      <c r="B93" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
+      <c r="M93" s="5"/>
+      <c r="N93" s="5"/>
+      <c r="O93" s="5"/>
+      <c r="P93" s="5"/>
+      <c r="Q93" s="5"/>
+    </row>
+    <row r="94" spans="1:17" ht="30" customHeight="1">
+      <c r="A94" s="3"/>
+      <c r="B94" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
+      <c r="N94" s="5"/>
+      <c r="O94" s="5"/>
+      <c r="P94" s="5"/>
+      <c r="Q94" s="5"/>
+    </row>
+    <row r="95" spans="1:17" ht="30" customHeight="1">
+      <c r="A95" s="3"/>
+      <c r="B95" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J95" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
+      <c r="M95" s="5"/>
+      <c r="N95" s="5"/>
+      <c r="O95" s="5"/>
+      <c r="P95" s="5"/>
+      <c r="Q95" s="5"/>
+    </row>
+    <row r="96" spans="1:17">
+      <c r="A96" s="3"/>
+      <c r="B96" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="5"/>
+      <c r="N96" s="5"/>
+      <c r="O96" s="5"/>
+      <c r="P96" s="5"/>
+      <c r="Q96" s="5"/>
+    </row>
+    <row r="97" spans="1:17" ht="29.25" customHeight="1">
+      <c r="A97" s="3"/>
+      <c r="B97" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
+      <c r="M97" s="5"/>
+      <c r="N97" s="5"/>
+      <c r="O97" s="5"/>
+      <c r="P97" s="5"/>
+      <c r="Q97" s="5"/>
+    </row>
+    <row r="98" spans="1:17" ht="30.75" customHeight="1">
+      <c r="A98" s="3"/>
+      <c r="B98" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5"/>
+      <c r="M98" s="5"/>
+      <c r="N98" s="5"/>
+      <c r="O98" s="5"/>
+      <c r="P98" s="5"/>
+      <c r="Q98" s="5"/>
+    </row>
+    <row r="99" spans="1:17">
+      <c r="B99" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="195">
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="J46:Q46"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:E3"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:Q3"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="J10:Q10"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="J37:Q37"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="B97:E97"/>
+    <mergeCell ref="B98:E98"/>
+    <mergeCell ref="J4:Q4"/>
+    <mergeCell ref="J5:Q5"/>
+    <mergeCell ref="J6:Q6"/>
+    <mergeCell ref="J7:Q7"/>
+    <mergeCell ref="J8:Q8"/>
+    <mergeCell ref="J9:Q9"/>
+    <mergeCell ref="J11:Q11"/>
+    <mergeCell ref="J12:Q12"/>
+    <mergeCell ref="J13:Q13"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="B95:E95"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="J23:Q23"/>
+    <mergeCell ref="J24:Q24"/>
+    <mergeCell ref="J25:Q25"/>
+    <mergeCell ref="J26:Q26"/>
+    <mergeCell ref="J27:Q27"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="J20:Q20"/>
+    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="J33:Q33"/>
+    <mergeCell ref="J34:Q34"/>
+    <mergeCell ref="J35:Q35"/>
+    <mergeCell ref="J36:Q36"/>
+    <mergeCell ref="J38:Q38"/>
+    <mergeCell ref="J28:Q28"/>
+    <mergeCell ref="J29:Q29"/>
+    <mergeCell ref="J30:Q30"/>
+    <mergeCell ref="J31:Q31"/>
+    <mergeCell ref="J32:Q32"/>
+    <mergeCell ref="J44:Q44"/>
+    <mergeCell ref="J45:Q45"/>
+    <mergeCell ref="J47:Q47"/>
+    <mergeCell ref="J48:Q48"/>
+    <mergeCell ref="J49:Q49"/>
+    <mergeCell ref="J39:Q39"/>
+    <mergeCell ref="J40:Q40"/>
+    <mergeCell ref="J41:Q41"/>
+    <mergeCell ref="J42:Q42"/>
+    <mergeCell ref="J43:Q43"/>
+    <mergeCell ref="J55:Q55"/>
+    <mergeCell ref="J56:Q56"/>
+    <mergeCell ref="J57:Q57"/>
+    <mergeCell ref="J58:Q58"/>
+    <mergeCell ref="J50:Q50"/>
+    <mergeCell ref="J51:Q51"/>
+    <mergeCell ref="J52:Q52"/>
+    <mergeCell ref="J53:Q53"/>
+    <mergeCell ref="J54:Q54"/>
+    <mergeCell ref="J64:Q64"/>
+    <mergeCell ref="J65:Q65"/>
+    <mergeCell ref="J66:Q66"/>
+    <mergeCell ref="J67:Q67"/>
+    <mergeCell ref="J68:Q68"/>
+    <mergeCell ref="J59:Q59"/>
+    <mergeCell ref="J60:Q60"/>
+    <mergeCell ref="J61:Q61"/>
+    <mergeCell ref="J62:Q62"/>
+    <mergeCell ref="J63:Q63"/>
+    <mergeCell ref="J74:Q74"/>
+    <mergeCell ref="J75:Q75"/>
+    <mergeCell ref="J76:Q76"/>
+    <mergeCell ref="J77:Q77"/>
+    <mergeCell ref="J78:Q78"/>
+    <mergeCell ref="J69:Q69"/>
+    <mergeCell ref="J70:Q70"/>
+    <mergeCell ref="J71:Q71"/>
+    <mergeCell ref="J72:Q72"/>
+    <mergeCell ref="J73:Q73"/>
+    <mergeCell ref="J84:Q84"/>
+    <mergeCell ref="J85:Q85"/>
+    <mergeCell ref="J86:Q86"/>
+    <mergeCell ref="J87:Q87"/>
+    <mergeCell ref="J88:Q88"/>
+    <mergeCell ref="J79:Q79"/>
+    <mergeCell ref="J80:Q80"/>
+    <mergeCell ref="J81:Q81"/>
+    <mergeCell ref="J82:Q82"/>
+    <mergeCell ref="J83:Q83"/>
+    <mergeCell ref="J94:Q94"/>
+    <mergeCell ref="J95:Q95"/>
+    <mergeCell ref="J96:Q96"/>
+    <mergeCell ref="J97:Q97"/>
+    <mergeCell ref="J98:Q98"/>
+    <mergeCell ref="J89:Q89"/>
+    <mergeCell ref="J90:Q90"/>
+    <mergeCell ref="J91:Q91"/>
+    <mergeCell ref="J92:Q92"/>
+    <mergeCell ref="J93:Q93"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
